--- a/data/trans_dic/P19C11_2023-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Nacimiento-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -762,7 +762,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
